--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44235</v>
+        <v>44417</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>42000</v>
+        <v>26000</v>
       </c>
       <c r="O2" t="n">
-        <v>42000</v>
+        <v>26000</v>
       </c>
       <c r="P2" t="n">
-        <v>42000</v>
+        <v>26000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2333</v>
+        <v>1444</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44417</v>
+        <v>44235</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>26000</v>
+        <v>42000</v>
       </c>
       <c r="O3" t="n">
-        <v>26000</v>
+        <v>42000</v>
       </c>
       <c r="P3" t="n">
-        <v>26000</v>
+        <v>42000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1444</v>
+        <v>2333</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44417</v>
+        <v>44235</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>26000</v>
+        <v>42000</v>
       </c>
       <c r="O2" t="n">
-        <v>26000</v>
+        <v>42000</v>
       </c>
       <c r="P2" t="n">
-        <v>26000</v>
+        <v>42000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1444</v>
+        <v>2333</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44235</v>
+        <v>44417</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>42000</v>
+        <v>26000</v>
       </c>
       <c r="O3" t="n">
-        <v>42000</v>
+        <v>26000</v>
       </c>
       <c r="P3" t="n">
-        <v>42000</v>
+        <v>26000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2333</v>
+        <v>1444</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
